--- a/Projects/Power Distribution Board/Rev2/Power Distribution Board BOM.xlsx
+++ b/Projects/Power Distribution Board/Rev2/Power Distribution Board BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lance\Github\MarsRover2020-PCB\Projects\Power Distribution Board\Rev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FC85A8-D213-4B79-9EB0-BFCD42108C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E62568-84A1-451E-B6E5-2A61652E0356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{8702F772-3E31-4115-8542-13550FA5AB39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="346">
   <si>
     <t>Line #</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>CAP CER 0.022UF 50V C0G 0805</t>
-  </si>
-  <si>
-    <t>2012</t>
   </si>
   <si>
     <t>C1729</t>
@@ -1076,6 +1073,9 @@
   </si>
   <si>
     <t>DNS</t>
+  </si>
+  <si>
+    <t>64-LQFP</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1091,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1101,6 +1101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1144,6 +1150,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1463,8 +1476,8 @@
   </sheetPr>
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1787,33 +1800,33 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
+    <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -1821,19 +1834,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>18</v>
@@ -1848,19 +1861,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>18</v>
@@ -1875,7 +1888,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -1884,16 +1897,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" s="4"/>
     </row>
@@ -1902,7 +1915,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -1911,19 +1924,19 @@
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -1931,28 +1944,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -1960,7 +1973,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -1969,13 +1982,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>13</v>
@@ -1987,28 +2000,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
@@ -2016,19 +2029,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="4">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>18</v>
@@ -2043,22 +2056,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>13</v>
@@ -2070,22 +2083,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="4">
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>13</v>
@@ -2097,28 +2110,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
@@ -2126,19 +2139,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>18</v>
@@ -2153,22 +2166,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>13</v>
@@ -2180,28 +2193,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="4">
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -2209,28 +2222,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -2238,22 +2251,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="4">
         <v>4</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>13</v>
@@ -2265,25 +2278,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="G29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I29" s="4"/>
     </row>
@@ -2292,25 +2305,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="4">
         <v>11</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="G30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I30" s="4"/>
     </row>
@@ -2319,19 +2332,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>13</v>
@@ -2346,19 +2359,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>13</v>
@@ -2373,19 +2386,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>13</v>
@@ -2400,19 +2413,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C34" s="4">
         <v>4</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>13</v>
@@ -2427,19 +2440,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>13</v>
@@ -2454,19 +2467,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="4">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>13</v>
@@ -2481,19 +2494,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C37" s="4">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>13</v>
@@ -2508,22 +2521,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>13</v>
@@ -2535,28 +2548,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" s="4">
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
@@ -2564,7 +2577,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C40" s="4">
         <v>2</v>
@@ -2573,19 +2586,19 @@
         <v>35</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
@@ -2593,28 +2606,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="4">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
@@ -2622,7 +2635,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
@@ -2631,19 +2644,19 @@
         <v>35</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
@@ -2651,7 +2664,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -2660,19 +2673,19 @@
         <v>35</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
@@ -2680,7 +2693,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C44" s="4">
         <v>2</v>
@@ -2689,19 +2702,19 @@
         <v>35</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
@@ -2709,7 +2722,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -2718,19 +2731,19 @@
         <v>35</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
@@ -2738,22 +2751,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="4">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="G46" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>13</v>
@@ -2765,7 +2778,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" s="4">
         <v>18</v>
@@ -2774,19 +2787,19 @@
         <v>35</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
@@ -2794,28 +2807,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C48" s="4">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
@@ -2823,28 +2836,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C49" s="4">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
@@ -2852,28 +2865,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C50" s="4">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
@@ -2881,28 +2894,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C51" s="4">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
@@ -2910,28 +2923,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C52" s="4">
         <v>3</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
@@ -2939,28 +2952,28 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C53" s="4">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
@@ -2968,28 +2981,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
@@ -2997,28 +3010,28 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C55" s="4">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
@@ -3026,28 +3039,28 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C56" s="4">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -3055,28 +3068,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C57" s="4">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="128.25" x14ac:dyDescent="0.45">
@@ -3084,28 +3097,28 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C58" s="4">
         <v>26</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
@@ -3113,28 +3126,28 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C59" s="4">
         <v>8</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
@@ -3142,28 +3155,28 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C60" s="4">
         <v>6</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
@@ -3171,7 +3184,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C61" s="4">
         <v>2</v>
@@ -3180,11 +3193,11 @@
         <v>35</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="G61" s="3" t="s">
         <v>18</v>
       </c>
@@ -3192,7 +3205,7 @@
         <v>13</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
@@ -3200,28 +3213,28 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C62" s="4">
         <v>4</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
@@ -3229,28 +3242,28 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C63" s="4">
-        <v>1</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="G63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
@@ -3258,7 +3271,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C64" s="4">
         <v>2</v>
@@ -3267,19 +3280,19 @@
         <v>35</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
@@ -3287,28 +3300,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C65" s="4">
         <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E65" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
@@ -3316,19 +3329,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C66" s="4">
-        <v>1</v>
-      </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>13</v>
@@ -3343,25 +3356,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C67" s="4">
         <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="G67" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I67" s="4"/>
     </row>
@@ -3370,25 +3383,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C68" s="4">
         <v>12</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="G68" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I68" s="4"/>
     </row>
@@ -3397,28 +3410,28 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C69" s="4">
-        <v>1</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="H69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
@@ -3426,28 +3439,28 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C70" s="4">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="H70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
@@ -3455,28 +3468,28 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C71" s="4">
-        <v>1</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="H71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
@@ -3484,25 +3497,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C72" s="4">
-        <v>1</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="G72" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I72" s="4"/>
     </row>
@@ -3511,28 +3524,28 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C73" s="4">
-        <v>1</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="H73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
@@ -3540,22 +3553,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C74" s="4">
         <v>6</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="G74" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>13</v>
@@ -3567,22 +3580,26 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C75" s="4">
-        <v>1</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="I75" s="4"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
@@ -3590,28 +3607,28 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C76" s="4">
-        <v>1</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="H76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
@@ -3619,28 +3636,28 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="G77" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
@@ -3648,28 +3665,28 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C78" s="4">
-        <v>1</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="H78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
@@ -3677,28 +3694,28 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C79" s="4">
-        <v>1</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="G79" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
@@ -3706,19 +3723,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C80" s="4">
-        <v>1</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>13</v>
